--- a/assignment-2/pdfreader.xlsx
+++ b/assignment-2/pdfreader.xlsx
@@ -619,7 +619,7 @@
           <t>9436055743</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -641,7 +641,7 @@
           <t>6913347770</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -663,7 +663,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -685,7 +685,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -707,7 +707,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D7" s="14" t="inlineStr">
+      <c r="D7" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -729,7 +729,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -751,7 +751,7 @@
           <t>8558893911</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -773,7 +773,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -795,7 +795,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -817,7 +817,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -861,7 +861,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -905,7 +905,7 @@
           <t>3852411668</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -927,7 +927,7 @@
           <t>108</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
+      <c r="D17" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -949,7 +949,7 @@
           <t>102</t>
         </is>
       </c>
-      <c r="D18" s="14" t="inlineStr">
+      <c r="D18" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -971,7 +971,7 @@
           <t>7005539653</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -993,7 +993,7 @@
           <t>9439994859</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -1015,7 +1015,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D21" s="14" t="inlineStr">
+      <c r="D21" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1059,7 +1059,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D23" s="14" t="inlineStr">
+      <c r="D23" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1103,7 +1103,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D25" s="14" t="inlineStr">
+      <c r="D25" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1147,7 +1147,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D27" s="14" t="inlineStr">
+      <c r="D27" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1169,7 +1169,7 @@
           <t>18001805145</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -1191,7 +1191,7 @@
           <t>1800313444222, 03323412600,</t>
         </is>
       </c>
-      <c r="D29" s="13" t="inlineStr">
+      <c r="D29" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -1235,7 +1235,7 @@
           <t>03192-232102</t>
         </is>
       </c>
-      <c r="D31" s="14" t="inlineStr">
+      <c r="D31" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1269,7 +1269,7 @@
           <t>9779558282</t>
         </is>
       </c>
-      <c r="D33" s="13" t="inlineStr">
+      <c r="D33" s="14" t="inlineStr">
         <is>
           <t>Mobile_No.</t>
         </is>
@@ -1291,7 +1291,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D34" s="14" t="inlineStr">
+      <c r="D34" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1379,7 +1379,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D38" s="14" t="inlineStr">
+      <c r="D38" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>
@@ -1401,7 +1401,7 @@
           <t>104</t>
         </is>
       </c>
-      <c r="D39" s="14" t="inlineStr">
+      <c r="D39" s="13" t="inlineStr">
         <is>
           <t>Emergency_Ambulance_No.</t>
         </is>

--- a/assignment-2/pdfreader.xlsx
+++ b/assignment-2/pdfreader.xlsx
@@ -961,13 +961,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>Islands</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
